--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2886.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2886.xlsx
@@ -354,7 +354,7 @@
         <v>1.919802407436904</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.927764487806648</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2886.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2886.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206018074629096</v>
+        <v>2.054260969161987</v>
       </c>
       <c r="B1">
-        <v>1.919802407436904</v>
+        <v>2.241319417953491</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.304770946502686</v>
       </c>
       <c r="D1">
-        <v>1.927764487806648</v>
+        <v>2.80654764175415</v>
       </c>
       <c r="E1">
-        <v>1.202938869783459</v>
+        <v>3.364995718002319</v>
       </c>
     </row>
   </sheetData>
